--- a/tables/computational.xlsx
+++ b/tables/computational.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\awesome-XAI-Evaluation\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4FEE44-1433-402F-84B9-9BF852F8D74D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D16F81-C2F7-46BC-85DA-F0A1414F5D67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="14400" xr2:uid="{39189DF3-A597-465B-B97B-36066A6DA1C5}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="17253" windowHeight="9786" xr2:uid="{39189DF3-A597-465B-B97B-36066A6DA1C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
